--- a/XLOOKUP Excel Tutorial File.xlsx
+++ b/XLOOKUP Excel Tutorial File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS F15\Desktop\Portfolio Project\Data Analyst\Excel Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D98F75-5F29-440A-9238-330462AB46EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{625F3FEF-17C5-43E2-BFC2-A4868BFCBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14904" yWindow="1704" windowWidth="15492" windowHeight="11412" firstSheet="5" activeTab="5" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="XLookUp Search Order" sheetId="9" r:id="rId4"/>
     <sheet name="XLookUp Horizontal" sheetId="4" r:id="rId5"/>
     <sheet name="XLookUp w SUM" sheetId="7" r:id="rId6"/>
+    <sheet name="VLookUp" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="92">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -334,6 +313,9 @@
   </si>
   <si>
     <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -687,22 +669,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027015F-D30F-450C-928C-DE78480974B7}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -719,25 +700,28 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -759,33 +743,29 @@
       <c r="I2">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>45000</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="str">
-        <f>_xlfn.XLOOKUP(A3,H2:H10,O2:O10)</f>
-        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
-      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -801,33 +781,29 @@
       <c r="I3">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>36000</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="str">
-        <f>_xlfn.XLOOKUP(A4,H3:H11,O3:O11)</f>
-        <v>Pam.Beasley@DunderMifflin.com</v>
-      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -843,33 +819,29 @@
       <c r="I4">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>63000</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="str">
-        <f>_xlfn.XLOOKUP(A5,H4:H12,O4:O12)</f>
-        <v>Meredith.Palmer@Yahoo.com</v>
-      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -885,33 +857,29 @@
       <c r="I5">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>47000</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="str">
-        <f>_xlfn.XLOOKUP(A6,H5:H13,O5:O13)</f>
-        <v>Kevin.Malone@DunderMifflin.com</v>
-      </c>
       <c r="E6">
         <v>1005</v>
       </c>
@@ -927,26 +895,26 @@
       <c r="I6">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>50000</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>1006</v>
       </c>
@@ -962,26 +930,26 @@
       <c r="I7">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>65000</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>1007</v>
       </c>
@@ -997,26 +965,26 @@
       <c r="I8">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>41000</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>1008</v>
       </c>
@@ -1032,26 +1000,26 @@
       <c r="I9">
         <v>38</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>13</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>48000</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>1009</v>
       </c>
@@ -1067,22 +1035,22 @@
       <c r="I10">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>42000</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1108,7 +1076,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,13 +1171,6 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:C3">_xlfn.XLOOKUP(A3,I2:I10,O2:P10)</f>
-        <v>8/30/2017</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
-      </c>
       <c r="F3">
         <v>1002</v>
       </c>
@@ -1248,13 +1209,6 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="str" cm="1">
-        <f t="array" ref="B4:C4">_xlfn.XLOOKUP(A4,I3:I11,O3:P11)</f>
-        <v>10/10/2015</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Pam.Beasley@DunderMifflin.com</v>
-      </c>
       <c r="F4">
         <v>1003</v>
       </c>
@@ -1293,13 +1247,6 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5:C5">_xlfn.XLOOKUP(A5,I4:I12,O4:P12)</f>
-        <v>9/11/2013</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Meredith.Palmer@Yahoo.com</v>
-      </c>
       <c r="F5">
         <v>1004</v>
       </c>
@@ -1337,13 +1284,6 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:C6">_xlfn.XLOOKUP(A6,I5:I13,O5:P13)</f>
-        <v>4/22/2015</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Kevin.Malone@DunderMifflin.com</v>
       </c>
       <c r="F6">
         <v>1005</v>
@@ -1541,7 +1481,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,10 +1573,6 @@
       <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="str">
-        <f>_xlfn.XLOOKUP(A3,H2:H10,O2:O10,"Not Found")</f>
-        <v>Not Found</v>
-      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -1675,10 +1611,6 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="str">
-        <f>_xlfn.XLOOKUP("*"&amp;A4,H3:H11,O3:O11,"Not Found",2)</f>
-        <v>Pam.Beasley@DunderMifflin.com</v>
-      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -1717,10 +1649,6 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="str">
-        <f>_xlfn.XLOOKUP(A5&amp;"*",H4:H12,O4:O12,"Not Found",2)</f>
-        <v>Meredith.Palmer@Yahoo.com</v>
-      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -1758,10 +1686,6 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" t="str">
-        <f>_xlfn.XLOOKUP(A6&amp;"*",H5:H13,O5:O13,"Not Found",2)</f>
-        <v>Kevin.Malone@DunderMifflin.com</v>
       </c>
       <c r="E6">
         <v>1005</v>
@@ -1959,7 +1883,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2052,10 +1976,6 @@
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="str">
-        <f>_xlfn.XLOOKUP(A3,N2:N10,I2:I10,,1)</f>
-        <v>Angela Martin</v>
-      </c>
       <c r="F3">
         <v>1002</v>
       </c>
@@ -2093,10 +2013,6 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="str">
-        <f>_xlfn.XLOOKUP(A4,N2:N10,I2:I10,,,1)</f>
-        <v>Toby Flenderson</v>
       </c>
       <c r="F4">
         <v>1003</v>
@@ -2361,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,10 +2333,6 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2">
-        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
-        <v>310</v>
-      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2465,10 +2377,6 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
-        <v>40</v>
-      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2513,10 +2421,6 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
       <c r="G4" t="s">
         <v>84</v>
       </c>
@@ -2555,12 +2459,6 @@
       </c>
       <c r="S4">
         <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23">
-        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2572,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2626,10 +2524,6 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2">
-        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
-        <v>310</v>
-      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2674,10 +2568,6 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
-        <v>40</v>
-      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2722,10 +2612,6 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
       <c r="G4" t="s">
         <v>84</v>
       </c>
@@ -2775,9 +2661,391 @@
       <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7">
-        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2):_xlfn.XLOOKUP(J1,H1:S1,H2:S2))</f>
-        <v>460</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F9C169-12D8-441E-870D-6C6EF0F6521C}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>45000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>1002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>36000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>63000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>1004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>47000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>65000</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>41000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>48000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>42000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
